--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H2">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>80.95698685641838</v>
+        <v>139.4154854004616</v>
       </c>
       <c r="R2">
-        <v>80.95698685641838</v>
+        <v>1254.739368604155</v>
       </c>
       <c r="S2">
-        <v>0.00540344789009032</v>
+        <v>0.00882751343244975</v>
       </c>
       <c r="T2">
-        <v>0.00540344789009032</v>
+        <v>0.00882751343244975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H3">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>77.67410871469731</v>
+        <v>120.9951991689155</v>
       </c>
       <c r="R3">
-        <v>77.67410871469731</v>
+        <v>1088.95679252024</v>
       </c>
       <c r="S3">
-        <v>0.005184333250858907</v>
+        <v>0.007661177256296366</v>
       </c>
       <c r="T3">
-        <v>0.005184333250858907</v>
+        <v>0.007661177256296364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H4">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>107.4319617888608</v>
+        <v>169.1726062899289</v>
       </c>
       <c r="R4">
-        <v>107.4319617888608</v>
+        <v>1522.55345660936</v>
       </c>
       <c r="S4">
-        <v>0.007170511524667261</v>
+        <v>0.01071167560861166</v>
       </c>
       <c r="T4">
-        <v>0.007170511524667261</v>
+        <v>0.01071167560861166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H5">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>3616.415005946803</v>
+        <v>4028.107479819643</v>
       </c>
       <c r="R5">
-        <v>3616.415005946803</v>
+        <v>36252.96731837679</v>
       </c>
       <c r="S5">
-        <v>0.2413764493017934</v>
+        <v>0.2550518171157296</v>
       </c>
       <c r="T5">
-        <v>0.2413764493017934</v>
+        <v>0.2550518171157296</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H6">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>3469.766146652288</v>
+        <v>3495.893339212678</v>
       </c>
       <c r="R6">
-        <v>3469.766146652288</v>
+        <v>31463.0400529141</v>
       </c>
       <c r="S6">
-        <v>0.2315884186436801</v>
+        <v>0.2213530679297792</v>
       </c>
       <c r="T6">
-        <v>0.2315884186436801</v>
+        <v>0.2213530679297791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H7">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>4799.073851656544</v>
+        <v>4887.874821219751</v>
       </c>
       <c r="R7">
-        <v>4799.073851656544</v>
+        <v>43990.87339097775</v>
       </c>
       <c r="S7">
-        <v>0.3203126312508663</v>
+        <v>0.3094905886280219</v>
       </c>
       <c r="T7">
-        <v>0.3203126312508663</v>
+        <v>0.3094905886280219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H8">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>861.4551636591149</v>
+        <v>957.977326811049</v>
       </c>
       <c r="R8">
-        <v>861.4551636591149</v>
+        <v>8621.795941299442</v>
       </c>
       <c r="S8">
-        <v>0.05749754613195827</v>
+        <v>0.06065723399460213</v>
       </c>
       <c r="T8">
-        <v>0.05749754613195827</v>
+        <v>0.06065723399460213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H9">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>826.5223871729424</v>
+        <v>831.404467902992</v>
       </c>
       <c r="R9">
-        <v>826.5223871729424</v>
+        <v>7482.640211126929</v>
       </c>
       <c r="S9">
-        <v>0.05516596926961807</v>
+        <v>0.05264289032980047</v>
       </c>
       <c r="T9">
-        <v>0.05516596926961807</v>
+        <v>0.05264289032980045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H10">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1143.172712062289</v>
+        <v>1162.449929272688</v>
       </c>
       <c r="R10">
-        <v>1143.172712062289</v>
+        <v>10462.04936345419</v>
       </c>
       <c r="S10">
-        <v>0.07630069273646736</v>
+        <v>0.07360403570470901</v>
       </c>
       <c r="T10">
-        <v>0.07630069273646736</v>
+        <v>0.073604035704709</v>
       </c>
     </row>
   </sheetData>
